--- a/data/trans_orig/Q70-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q70-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6573549406076308</v>
+        <v>0.6511430697708187</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.427239510935675</v>
+        <v>1.235338548929497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.992540938357799</v>
+        <v>1.000584935098547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.64181755865311</v>
+        <v>5.721609779012657</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6199360757125234</v>
+        <v>0.6176678356766665</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3624890788413485</v>
+        <v>0.3758600154180793</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8151832292114409</v>
+        <v>0.6718541367989898</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.108934647089136</v>
+        <v>7.745470331711786</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8408551940485977</v>
+        <v>0.7613466495861887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.007954777357634</v>
+        <v>1.10926685074714</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.193966134447482</v>
+        <v>1.049384013765998</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.646953393982614</v>
+        <v>7.714624747450451</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.238800701037662</v>
+        <v>4.407275578165253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.333737765234446</v>
+        <v>7.253854110535506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.556986098843644</v>
+        <v>3.561637317662631</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.0645834173555</v>
+        <v>21.1120284514174</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.811404533479558</v>
+        <v>3.45075055082348</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.490496705295902</v>
+        <v>1.482436333980754</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.658982042152312</v>
+        <v>4.661074223396142</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.23470621451542</v>
+        <v>18.87226745477373</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.136453643176317</v>
+        <v>2.853280706845074</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4.465546343972981</v>
+        <v>4.247093629433883</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.192800804292478</v>
+        <v>3.406968200671604</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.77940311660963</v>
+        <v>17.98195698920815</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>1.9864365771977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.979476742826544</v>
+        <v>5.979476742826543</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>3.230752297576766</v>
@@ -817,7 +817,7 @@
         <v>1.69918034439593</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>6.689564606385899</v>
+        <v>6.689564606385898</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.298642223172533</v>
@@ -829,7 +829,7 @@
         <v>1.867672285279234</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>6.273053753070712</v>
+        <v>6.273053753070711</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.195519714357989</v>
+        <v>1.176658886539127</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.708785257679547</v>
+        <v>0.7117530008650589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9927780900804013</v>
+        <v>0.9976813534933613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.655178072072913</v>
+        <v>3.685213211183322</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.664411657476885</v>
+        <v>1.693344634173612</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.144428049519227</v>
+        <v>1.171377258901541</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9537653813164139</v>
+        <v>0.9697682512304042</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>4.45782631694374</v>
+        <v>4.380692823602931</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.54628851379719</v>
+        <v>1.494791271768864</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.172155409947286</v>
+        <v>1.176124333632577</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.16726010029232</v>
+        <v>1.163081917557764</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>4.542756875654027</v>
+        <v>4.515564892550345</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.638721042060911</v>
+        <v>3.539177119832663</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.668837685600518</v>
+        <v>6.397093952792108</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.246916797153888</v>
+        <v>4.982836200444073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.643139862179069</v>
+        <v>9.626228744286495</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.702093584870457</v>
+        <v>8.47735495666311</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.713985063699955</v>
+        <v>9.12092467237059</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.300696174737458</v>
+        <v>3.305139203889879</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>10.03788177102457</v>
+        <v>10.36513019268119</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.99961654577106</v>
+        <v>3.907518710257481</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5.295324725966218</v>
+        <v>5.674192388920742</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.566102817529217</v>
+        <v>3.694379348983101</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>8.761440592450944</v>
+        <v>9.332403317917532</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>2.904761229628309</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.54486393675511</v>
+        <v>7.544863936755109</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1.665874829277483</v>
@@ -953,7 +953,7 @@
         <v>2.189797872012195</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>8.816246301161733</v>
+        <v>8.816246301161735</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>1.244775585256926</v>
@@ -965,7 +965,7 @@
         <v>2.625780776775064</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>8.105010135179089</v>
+        <v>8.105010135179091</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6510753261601473</v>
+        <v>0.6198974308667516</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6160712521133234</v>
+        <v>0.6315781534045377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.336434250857093</v>
+        <v>1.368772781649184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.017087233054367</v>
+        <v>4.897537468544495</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7759690177652376</v>
+        <v>0.6942130774989737</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.35410732612201</v>
+        <v>0.3697731893251254</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7033471222917098</v>
+        <v>0.6392775168819623</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.673703388515079</v>
+        <v>6.601283590615624</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8025673521900546</v>
+        <v>0.819273691581894</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.718386750093739</v>
+        <v>0.7701461492359011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.440435587710451</v>
+        <v>1.433716765570112</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.407146862066912</v>
+        <v>6.304634066337879</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.996771405469567</v>
+        <v>2.18094660147447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.937258877558121</v>
+        <v>2.118041568901486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.936651350948277</v>
+        <v>6.106630994695649</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.0306217422894</v>
+        <v>12.07344783875887</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.147761461102122</v>
+        <v>3.822623965170908</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.288873709680417</v>
+        <v>6.891128894400982</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.534735464342167</v>
+        <v>6.745491624026345</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.54752381671692</v>
+        <v>12.2252565786847</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.082686953269254</v>
+        <v>2.156990618717603</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.098144055340928</v>
+        <v>3.184802203772222</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4.783830154932882</v>
+        <v>5.106732889669784</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>10.86257152151967</v>
+        <v>11.14224664187853</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>1.238616069484493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.234471213630128</v>
+        <v>4.234471213630129</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8164007015531988</v>
@@ -1101,7 +1101,7 @@
         <v>1.836187713670082</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>5.842826328236617</v>
+        <v>5.842826328236618</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6758600813152305</v>
+        <v>0.7334201788975494</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4432367530469351</v>
+        <v>0.4664978756397867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6706317699284787</v>
+        <v>0.6569249838269796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.9847212137302</v>
+        <v>3.037716789376497</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4992078925516555</v>
+        <v>0.4964286354769326</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9532835759996489</v>
+        <v>0.9934090560931841</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.207300424399838</v>
+        <v>1.275338357536887</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>5.514024849243037</v>
+        <v>5.76463441558515</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.697021774770311</v>
+        <v>0.6933003560010886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.749607796687216</v>
+        <v>0.7289353188728515</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.158290162463091</v>
+        <v>1.094875611724158</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>4.553262568904745</v>
+        <v>4.545620727471542</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.66135232707866</v>
+        <v>2.910271094722318</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.084023201216322</v>
+        <v>2.319987880500352</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.599572157943758</v>
+        <v>2.730790490208253</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.43576296016596</v>
+        <v>6.278599130365257</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.357491181369311</v>
+        <v>1.316598377071703</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.747382292143405</v>
+        <v>4.034227965468619</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>5.541261845409146</v>
+        <v>6.065082700267096</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>11.5728590589858</v>
+        <v>11.83270049615244</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.010871169598053</v>
+        <v>2.033659367415836</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.328271257994375</v>
+        <v>2.255128691208303</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.234185319815392</v>
+        <v>3.48097911482057</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.608260972646402</v>
+        <v>7.675456041849136</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>2.116709313627699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.388879439574256</v>
+        <v>6.388879439574255</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1.901716533429243</v>
@@ -1237,7 +1237,7 @@
         <v>2.094370904891111</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>7.251306364087028</v>
+        <v>7.251306364087027</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.046139765175095</v>
+        <v>1.068388856140404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.086255033683921</v>
+        <v>1.04620579649059</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.417547363744447</v>
+        <v>1.486323379664776</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.004598161842768</v>
+        <v>5.095254312027642</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.268810358936248</v>
+        <v>1.257746531179311</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.159525230789759</v>
+        <v>1.167095380592261</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.325910916411905</v>
+        <v>1.376142566030175</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.086503307524243</v>
+        <v>6.88109400765048</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.239190295491762</v>
+        <v>1.223564961205106</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.302281636975846</v>
+        <v>1.296838457780233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.580383342738283</v>
+        <v>1.573024254344811</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.202567228419819</v>
+        <v>6.282617921746811</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.055826205601617</v>
+        <v>2.087210115924112</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.824993279353865</v>
+        <v>2.734093231764584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.261552148989539</v>
+        <v>3.497665799748093</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.3522468104031</v>
+        <v>8.356599706177828</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.349321257059422</v>
+        <v>3.766197329250419</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.619579034886562</v>
+        <v>3.860697958994587</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.412439565881195</v>
+        <v>3.450633478241704</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.30842248127363</v>
+        <v>9.982134495594213</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.216121463359403</v>
+        <v>2.194107521925508</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.647909371911212</v>
+        <v>2.600923606833561</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.937398967920871</v>
+        <v>2.951867248738151</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.52303883469877</v>
+        <v>8.519621393853807</v>
       </c>
     </row>
     <row r="19">
